--- a/Statistics/Assessment/Introduction to Statistics.xlsx
+++ b/Statistics/Assessment/Introduction to Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyomk\Desktop\TOPS\Statistics\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C352C8-F3BE-43CC-B143-B797B87753AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B75B1-5AC4-4BB5-833A-ADC334115AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B7CADAE-14C5-44D4-BA0A-6D12680D532B}"/>
   </bookViews>
@@ -201,7 +201,7 @@
     <t>Degree of freedom</t>
   </si>
   <si>
-    <t>Ho accept</t>
+    <t>Ha Accept</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,8 +1028,8 @@
         <v>2</v>
       </c>
       <c r="G20" t="b">
-        <f>0.05&gt;G19</f>
-        <v>1</v>
+        <f>0.05&lt;G19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
